--- a/test.xlsx
+++ b/test.xlsx
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,11 +130,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +439,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="5">
-        <f>C13 * ($C$11^B17 / FACT(B17))</f>
+        <f>C13 * (1 / FACT(B17))</f>
         <v>343</v>
       </c>
     </row>
@@ -556,8 +566,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:C20" si="0">C14 * ($C$11^B18 / FACT(B18))</f>
-        <v>882</v>
+        <f t="shared" ref="C18:C20" si="0">C14 * (1 / FACT(B18))</f>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,7 +577,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>756</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,7 +587,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +605,7 @@
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <f>C14 * ($C$12^B19 / FACT(B19))</f>
+        <f>C14 * (1/ FACT(B19))</f>
         <v>2725</v>
       </c>
     </row>
@@ -740,8 +750,8 @@
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <f>C15 * ($C$12^B20 / FACT(B20))</f>
-        <v>9312</v>
+        <f t="shared" ref="C20:C23" si="0">C15 * (1/ FACT(B20))</f>
+        <v>1552</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,8 +760,8 @@
         <v>2</v>
       </c>
       <c r="C21" s="5">
-        <f>C16 * ($C$12^B21 / FACT(B21))</f>
-        <v>11772</v>
+        <f t="shared" si="0"/>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,12 +770,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="5">
-        <f>C17 * ($C$12^B22 / FACT(B22))</f>
-        <v>6480</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
